--- a/biology/Zoologie/Argynnini/Argynnini.xlsx
+++ b/biology/Zoologie/Argynnini/Argynnini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Argynnini sont une tribu de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
-Ses représentants sont appelés Nacrés en français et fritillaries en anglais[1].
+Ses représentants sont appelés Nacrés en français et fritillaries en anglais.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Argynnini a été décrite par le naturaliste britannique William Swainson en 1833.
 Le rang taxinomique de ce groupe a évolué au cours du temps : il a parfois été considéré comme une sous-tribu (Argynnina) de la tribu des Heliconiini, ou comme une sous-famille à part entière (Argynninae) au sein des Nymphalidae. 
@@ -544,10 +558,12 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Argynnini comporte entre six et neuf genres en fonction des sources, pour une centaine d'espèces au total.
-Une étude de phylogénétique publiée en 2006 a conduit à définir quatre sous-tribus[2] :
+Une étude de phylogénétique publiée en 2006 a conduit à définir quatre sous-tribus :
 Sous-tribu Euptoietina Simonsen, 2006
 Genre Euptoieta Doubleday, 1848
 Sous-tribu Yrameina Reuss, 1926
@@ -555,15 +571,15 @@
 Sous-tribu Boloriina Warren et al., 1946
 Genre Boloria Moore, 1900
 Sous-genre Boloria Moore, 1900
-Sous-genre[3] Proclossiana Reuss, 1926
-Sous-genre[3] Clossiana Reuss, 1920
+Sous-genre Proclossiana Reuss, 1926
+Sous-genre Clossiana Reuss, 1920
 Sous-tribu Argynnina Warren et al., 1946
 Genre Issoria Hübner, 1819
 Genre Brenthis Hübner, 1819
 Genre Argynnis Fabricius, 1807
-Genre[4] Fabriciana Reuss, 1920
-Genre[4] Speyeria Scudder, 1872
-Par ailleurs, une étude publiée en 2008 suggère que le genre Pardopsis Trimen, 1887, traditionnellement placé dans la tribu des Acraeini, pourrait en fait appartenir aux Argynnini[5].
+Genre Fabriciana Reuss, 1920
+Genre Speyeria Scudder, 1872
+Par ailleurs, une étude publiée en 2008 suggère que le genre Pardopsis Trimen, 1887, traditionnellement placé dans la tribu des Acraeini, pourrait en fait appartenir aux Argynnini.
 			Euptoieta claudia
 			Yramea cytheris
 			Boloria euphrosyne
